--- a/ADP.xlsx
+++ b/ADP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A4F65F-8E8D-4DCD-A75B-52D093DF33E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0C4F9F-B74B-46EB-9256-AD804BF51115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{A8F378ED-69BD-4E7D-82AB-EFA02827D301}"/>
   </bookViews>
